--- a/尿素循环障碍.xlsx
+++ b/尿素循环障碍.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28620" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>基因</t>
   </si>
@@ -50,6 +51,186 @@
   </si>
   <si>
     <t>SLC25A13</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>CA2</t>
+  </si>
+  <si>
+    <t>MCCC1</t>
+  </si>
+  <si>
+    <t>MCCC2</t>
+  </si>
+  <si>
+    <t>PM20D1</t>
+  </si>
+  <si>
+    <t>CLCN7</t>
+  </si>
+  <si>
+    <t>TNFSF11</t>
+  </si>
+  <si>
+    <t>FERMT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuple number in the gene_disease databse for all the terms: 36 </t>
+  </si>
+  <si>
+    <t>OTC     ID:5009 -       1</t>
+  </si>
+  <si>
+    <t>OMIM:311250 (CLINVAR)   ornithine carbamoyltransferase deficiency       urea cycle      0.0570004554938807</t>
+  </si>
+  <si>
+    <t>umls:C0268542 (DISGENET)        ornithine carbamoyltransferase deficiency disease       urea cycle      0.0961356343113198</t>
+  </si>
+  <si>
+    <t>ORPHANET:664 (ORPHANET) ornithine transcarbamylase deficiency   urea cycle      0.390860266243753</t>
+  </si>
+  <si>
+    <t>OMIM:311250 (GENE_REVIEWS)      ornithine transcarbamylase deficiency   urea cycle      0.456003643951046</t>
+  </si>
+  <si>
+    <t>ASL     ID:435 -        0.984141506211874</t>
+  </si>
+  <si>
+    <t>OMIM:207900 (CLINVAR)   argininosuccinate lyase deficiency      urea cycle      0.0570004554938807</t>
+  </si>
+  <si>
+    <t>ORPHANET:23 (ORPHANET)  argininosuccinic aciduria       urea cycle      0.390860266243753</t>
+  </si>
+  <si>
+    <t>OMIM:207900 (GENE_REVIEWS)      argininosuccinic aciduria       urea cycle      0.456003643951046</t>
+  </si>
+  <si>
+    <t>umls:C0268547 (DISGENET)        argininosuccinic aciduria       urea cycle      0.0802771405231942</t>
+  </si>
+  <si>
+    <t>ARG1    ID:383 -        0.984073434329908</t>
+  </si>
+  <si>
+    <t>OMIM:207800 (CLINVAR)   arginase deficiency     urea cycle      0.0570004554938807</t>
+  </si>
+  <si>
+    <t>ORPHANET:90 (ORPHANET)  argininemia     urea cycle      0.390860266243753</t>
+  </si>
+  <si>
+    <t>OMIM:207800 (GENE_REVIEWS)      argininemia     urea cycle      0.456003643951046</t>
+  </si>
+  <si>
+    <t>umls:C0268548 (DISGENET)        hyperargininemia        urea cycle      0.080209068641228</t>
+  </si>
+  <si>
+    <t>SLC25A15        ID:10166 -      0.972707379115114</t>
+  </si>
+  <si>
+    <t>umls:C0268540 (DISGENET)        hhh syndrome    urea cycle      0.0688430134264345</t>
+  </si>
+  <si>
+    <t>OMIM:238970 (GENE_REVIEWS)      hyperornithinemia hyperammonemia homocitrullinemia syndrome     urea cycle      0.456003643951046</t>
+  </si>
+  <si>
+    <t>ORPHANET:415 (ORPHANET) hyperornithinemia hyperammonemia homocitrullinuria      urea cycle      0.390860266243753</t>
+  </si>
+  <si>
+    <t>OMIM:238970 (CLINVAR)   hyperornithinemia hyperammonemia homocitrullinuria syndrome     urea cycle      0.0570004554938807</t>
+  </si>
+  <si>
+    <t>ASS1    ID:445 -        0.565816922083195</t>
+  </si>
+  <si>
+    <t>OMIM:215700 (GENE_REVIEWS)      citrullinemia   urea cycle      0.456003643951046</t>
+  </si>
+  <si>
+    <t>umls:C0175683 (DISGENET)        citrullinemia   urea cycle      0.0813130503852088</t>
+  </si>
+  <si>
+    <t>OMIM:215700 (CLINVAR)   citrullinemia type i    urea cycle      0.0285002277469403</t>
+  </si>
+  <si>
+    <t>CA2     ID:760 -        0.528001718610896</t>
+  </si>
+  <si>
+    <t>OMIM:259730 (CLINVAR)   osteopetrosis   urea cycle      0.0570004554938807</t>
+  </si>
+  <si>
+    <t>ORPHANET:2785 (ORPHANET)        osteopetrosis   urea cycle      0.390860266243753</t>
+  </si>
+  <si>
+    <t>umls:C0345407 (DISGENET)        osteopetrosis   urea cycle      0.0801409968732626</t>
+  </si>
+  <si>
+    <t>NAGS    ID:162417 -     0.470899155351067</t>
+  </si>
+  <si>
+    <t>ORPHANET:927 (ORPHANET) hyperammonemia due to n acetylglutamate synthetase deficiency   urea cycle      0.390860266243753</t>
+  </si>
+  <si>
+    <t>umls:C0268543 (DISGENET)        n acetyl glutamate synthetase deficiency        urea cycle      0.0800388891073136</t>
+  </si>
+  <si>
+    <t>SLC25A13        ID:10165 -      0.360993746291552</t>
+  </si>
+  <si>
+    <t>umls:C1863844 (DISGENET)        adult onset citrullinemia type 2        urea cycle      0.0355465753767048</t>
+  </si>
+  <si>
+    <t>OMIM:605814 (GENE_REVIEWS)      citrullinemia type ii neonatal onset    urea cycle      0.228001821975523</t>
+  </si>
+  <si>
+    <t>OMIM:605814 (CLINVAR)   neonatal intrahepatic cholestasis caused by citrin deficiency   urea cycle      0.0285002277469403</t>
+  </si>
+  <si>
+    <t>umls:C1853942 (DISGENET)        neonatal onset citrullinemia type 2     urea cycle      0.0689451211923835</t>
+  </si>
+  <si>
+    <t>MCCC1   ID:56922 -      0.0969688462215634</t>
+  </si>
+  <si>
+    <t>OMIM:210200 (CLINVAR)   3 methylcrotonyl coa carboxylase 1 deficiency   urea cycle      0.0285002277469403</t>
+  </si>
+  <si>
+    <t>umls:C0268600 (DISGENET)        3 methylcrotonyl coa carboxylase 1 deficiency   urea cycle      0.0684686184746231</t>
+  </si>
+  <si>
+    <t>MCCC2   ID:64087 -      0.0969007743395972</t>
+  </si>
+  <si>
+    <t>OMIM:210210 (CLINVAR)   3 methylcrotonyl coa carboxylase 2 deficiency   urea cycle      0.0285002277469403</t>
+  </si>
+  <si>
+    <t>umls:C1859499 (DISGENET)        3 methylcrotonyl coa carboxylase 2 deficiency   urea cycle      0.0684005465926569</t>
+  </si>
+  <si>
+    <t>PM20D1  ID:148811 -     0.080004853223331</t>
+  </si>
+  <si>
+    <t>umls:C0751753 (DISGENET)        carbamoyl phosphate synthase i deficiency disease       urea cycle      0.080004853223331</t>
+  </si>
+  <si>
+    <t>CLCN7   ID:1186 -       0.0365356385023645</t>
+  </si>
+  <si>
+    <t>umls:C0029454 (DISGENET)        osteopetrosis   urea cycle      0.0365356385023645</t>
+  </si>
+  <si>
+    <t>TNFSF11 ID:8600 -       0.0350808360549555</t>
+  </si>
+  <si>
+    <t>umls:C0029454 (DISGENET)        osteopetrosis   urea cycle      0.0350808360549555</t>
+  </si>
+  <si>
+    <t>FERMT3  ID:83706 -      0.0342002732963284</t>
+  </si>
+  <si>
+    <t>umls:C0029454 (DISGENET)        osteopetrosis   urea cycle      0.0342002732963284</t>
+  </si>
+  <si>
+    <t>限制解除</t>
   </si>
 </sst>
 </file>
@@ -57,18 +238,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -92,6 +279,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -99,90 +293,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,14 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,6 +361,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -237,163 +424,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,11 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,28 +648,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,156 +707,149 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,18 +858,27 @@
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -744,12 +940,62 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" r:id="rId1" ax:persistence="persistStreamInit"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12287250"/>
+              <a:ext cx="0" cy="171450"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="585858"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1002,76 +1248,464 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" ht="15" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" ht="15" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" ht="15" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" ht="15" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" ht="15" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" ht="15" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" ht="15" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" ht="15" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" ht="15" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" ht="15" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" ht="15" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" ht="15" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" ht="15" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" ht="15" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>